--- a/biology/Botanique/Kirkonrinne/Kirkonrinne.xlsx
+++ b/biology/Botanique/Kirkonrinne/Kirkonrinne.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La parc de la pente de l'église (en finnois : Kirkonmäen puisto ou Kirkonrinne) est un parc situé à Kouvola en Finlande[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La parc de la pente de l'église (en finnois : Kirkonmäen puisto ou Kirkonrinne) est un parc situé à Kouvola en Finlande.
 </t>
         </is>
       </c>
@@ -511,11 +523,13 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le parc est situé du côté nord de l'église de Kuusankoski. 
 Le parc s'étend sur 1,4 hectare et est abondamment boisé.
-La construction du parc a déjà commencé à la fin des années 1950. Depuis lors, la zone a été agrandie et rénovée à quelques reprises[1].
+La construction du parc a déjà commencé à la fin des années 1950. Depuis lors, la zone a été agrandie et rénovée à quelques reprises.
 le parc est planté de dizaines d'espèces d'arbres à feuilles caduques et de conifères. 
 Des milliers d'arbustes et de vivaces ont été renouvelés en 2007. 
 La sculpture en bronzeKolmoiskoske de Kimmo Pyykö est érigée dans le parc depuis 1971.
